--- a/Tablas Cx(1).xlsx
+++ b/Tablas Cx(1).xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alberto\Desktop\Scuelin!\Semestre 8\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11190" windowHeight="2850"/>
   </bookViews>
@@ -408,7 +403,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -418,8 +413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
